--- a/src/test/resources/data/Entries.xlsx
+++ b/src/test/resources/data/Entries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JAVA PROGRAM\DemoBlaze\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4506A04F-7912-42D3-A389-F9A6F1404D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DD3F39-7D6C-47F0-9285-C87F345B2DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F2F5E39-B96F-481F-968D-FD05F7C60F23}"/>
   </bookViews>
@@ -125,7 +125,7 @@
     <t>2000</t>
   </si>
   <si>
-    <t>krish345xyz</t>
+    <t>krishnan25</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,7 +565,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
